--- a/sources/Udi_data.xlsx
+++ b/sources/Udi_data.xlsx
@@ -2344,7 +2344,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" textRotation="90" wrapText="1"/>
@@ -2368,7 +2368,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2651,8 +2650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S131"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L81" sqref="L81:L127"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2774,15 +2773,15 @@
       <c r="L2" s="5" t="s">
         <v>539</v>
       </c>
-      <c r="M2" s="5" t="s">
-        <v>540</v>
-      </c>
+      <c r="M2" s="5"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
-      <c r="S2" s="5"/>
+      <c r="S2" s="5" t="s">
+        <v>540</v>
+      </c>
     </row>
     <row r="3" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
@@ -2821,15 +2820,15 @@
       <c r="L3" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="M3" s="5" t="s">
-        <v>543</v>
-      </c>
+      <c r="M3" s="5"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
-      <c r="S3" s="5"/>
+      <c r="S3" s="5" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="4" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
@@ -2911,15 +2910,15 @@
       <c r="L5" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="M5" s="5" t="s">
-        <v>550</v>
-      </c>
+      <c r="M5" s="5"/>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
-      <c r="S5" s="5"/>
+      <c r="S5" s="5" t="s">
+        <v>550</v>
+      </c>
     </row>
     <row r="6" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
@@ -2958,15 +2957,15 @@
       <c r="L6" s="5" t="s">
         <v>539</v>
       </c>
-      <c r="M6" s="5" t="s">
-        <v>552</v>
-      </c>
+      <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
+      <c r="S6" s="5" t="s">
+        <v>552</v>
+      </c>
     </row>
     <row r="7" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
@@ -3005,15 +3004,15 @@
       <c r="L7" s="5" t="s">
         <v>555</v>
       </c>
-      <c r="M7" s="5" t="s">
-        <v>556</v>
-      </c>
+      <c r="M7" s="5"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
-      <c r="S7" s="9"/>
+      <c r="S7" s="5" t="s">
+        <v>556</v>
+      </c>
     </row>
     <row r="8" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
@@ -3052,15 +3051,15 @@
       <c r="L8" s="5" t="s">
         <v>555</v>
       </c>
-      <c r="M8" s="5" t="s">
-        <v>558</v>
-      </c>
+      <c r="M8" s="5"/>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
-      <c r="S8" s="5"/>
+      <c r="S8" s="5" t="s">
+        <v>558</v>
+      </c>
     </row>
     <row r="9" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
@@ -3097,15 +3096,15 @@
       <c r="L9" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="M9" s="5" t="s">
-        <v>560</v>
-      </c>
+      <c r="M9" s="5"/>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
-      <c r="S9" s="5"/>
+      <c r="S9" s="5" t="s">
+        <v>560</v>
+      </c>
     </row>
     <row r="10" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
@@ -3142,15 +3141,15 @@
       <c r="L10" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="M10" s="5" t="s">
-        <v>550</v>
-      </c>
+      <c r="M10" s="5"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
-      <c r="S10" s="5"/>
+      <c r="S10" s="5" t="s">
+        <v>550</v>
+      </c>
     </row>
     <row r="11" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
@@ -3187,15 +3186,15 @@
       <c r="L11" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="M11" s="5" t="s">
-        <v>560</v>
-      </c>
+      <c r="M11" s="5"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
-      <c r="S11" s="5"/>
+      <c r="S11" s="5" t="s">
+        <v>560</v>
+      </c>
     </row>
     <row r="12" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
@@ -3234,15 +3233,15 @@
       <c r="L12" s="5" t="s">
         <v>564</v>
       </c>
-      <c r="M12" s="5" t="s">
-        <v>565</v>
-      </c>
+      <c r="M12" s="5"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
-      <c r="S12" s="5"/>
+      <c r="S12" s="5" t="s">
+        <v>565</v>
+      </c>
     </row>
     <row r="13" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
@@ -3324,15 +3323,15 @@
       <c r="L14" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="M14" s="5" t="s">
-        <v>568</v>
-      </c>
+      <c r="M14" s="5"/>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
-      <c r="S14" s="9"/>
+      <c r="S14" s="5" t="s">
+        <v>568</v>
+      </c>
     </row>
     <row r="15" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
@@ -3377,7 +3376,7 @@
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
-      <c r="S15" s="9"/>
+      <c r="S15" s="5"/>
     </row>
     <row r="16" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
@@ -3414,15 +3413,15 @@
       <c r="L16" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="M16" s="5" t="s">
-        <v>571</v>
-      </c>
+      <c r="M16" s="5"/>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
+      <c r="S16" s="5" t="s">
+        <v>571</v>
+      </c>
     </row>
     <row r="17" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
@@ -3459,15 +3458,15 @@
       <c r="L17" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="M17" s="5" t="s">
-        <v>560</v>
-      </c>
+      <c r="M17" s="5"/>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
-      <c r="S17" s="5"/>
+      <c r="S17" s="5" t="s">
+        <v>560</v>
+      </c>
     </row>
     <row r="18" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
@@ -3506,15 +3505,15 @@
       <c r="L18" s="5" t="s">
         <v>574</v>
       </c>
-      <c r="M18" s="5" t="s">
-        <v>575</v>
-      </c>
+      <c r="M18" s="5"/>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
-      <c r="S18" s="5"/>
+      <c r="S18" s="5" t="s">
+        <v>575</v>
+      </c>
     </row>
     <row r="19" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
@@ -3553,15 +3552,15 @@
       <c r="L19" s="5" t="s">
         <v>539</v>
       </c>
-      <c r="M19" s="5" t="s">
-        <v>577</v>
-      </c>
+      <c r="M19" s="5"/>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
-      <c r="S19" s="5"/>
+      <c r="S19" s="5" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="20" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
@@ -3600,15 +3599,15 @@
       <c r="L20" s="5" t="s">
         <v>580</v>
       </c>
-      <c r="M20" s="5" t="s">
-        <v>581</v>
-      </c>
+      <c r="M20" s="5"/>
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
-      <c r="S20" s="9"/>
+      <c r="S20" s="5" t="s">
+        <v>581</v>
+      </c>
     </row>
     <row r="21" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
@@ -3645,15 +3644,15 @@
       <c r="L21" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="M21" s="5" t="s">
-        <v>560</v>
-      </c>
+      <c r="M21" s="5"/>
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
       <c r="R21" s="7"/>
-      <c r="S21" s="5"/>
+      <c r="S21" s="5" t="s">
+        <v>560</v>
+      </c>
     </row>
     <row r="22" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
@@ -3698,7 +3697,7 @@
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
       <c r="R22" s="7"/>
-      <c r="S22" s="9"/>
+      <c r="S22" s="5"/>
     </row>
     <row r="23" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
@@ -3735,15 +3734,15 @@
       <c r="L23" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="M23" s="5" t="s">
-        <v>560</v>
-      </c>
+      <c r="M23" s="5"/>
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
       <c r="R23" s="7"/>
-      <c r="S23" s="5"/>
+      <c r="S23" s="5" t="s">
+        <v>560</v>
+      </c>
     </row>
     <row r="24" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
@@ -3788,7 +3787,7 @@
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
       <c r="R24" s="7"/>
-      <c r="S24" s="9"/>
+      <c r="S24" s="5"/>
     </row>
     <row r="25" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
@@ -3915,15 +3914,15 @@
       <c r="L27" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="M27" s="5" t="s">
-        <v>560</v>
-      </c>
+      <c r="M27" s="5"/>
       <c r="N27" s="5"/>
       <c r="O27" s="5"/>
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
       <c r="R27" s="7"/>
-      <c r="S27" s="5"/>
+      <c r="S27" s="5" t="s">
+        <v>560</v>
+      </c>
     </row>
     <row r="28" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
@@ -3960,15 +3959,15 @@
       <c r="L28" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="M28" s="5" t="s">
-        <v>560</v>
-      </c>
+      <c r="M28" s="5"/>
       <c r="N28" s="5"/>
       <c r="O28" s="5"/>
       <c r="P28" s="7"/>
       <c r="Q28" s="7"/>
       <c r="R28" s="7"/>
-      <c r="S28" s="5"/>
+      <c r="S28" s="5" t="s">
+        <v>560</v>
+      </c>
     </row>
     <row r="29" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
@@ -4007,15 +4006,15 @@
       <c r="L29" s="5" t="s">
         <v>590</v>
       </c>
-      <c r="M29" s="5" t="s">
-        <v>591</v>
-      </c>
+      <c r="M29" s="5"/>
       <c r="N29" s="5"/>
       <c r="O29" s="5"/>
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
       <c r="R29" s="7"/>
-      <c r="S29" s="5"/>
+      <c r="S29" s="5" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="30" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
@@ -4052,15 +4051,15 @@
       <c r="L30" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="M30" s="5" t="s">
-        <v>593</v>
-      </c>
+      <c r="M30" s="5"/>
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
       <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
       <c r="R30" s="7"/>
-      <c r="S30" s="9"/>
+      <c r="S30" s="5" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="31" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
@@ -4099,15 +4098,15 @@
       <c r="L31" s="5" t="s">
         <v>564</v>
       </c>
-      <c r="M31" s="5" t="s">
-        <v>556</v>
-      </c>
+      <c r="M31" s="5"/>
       <c r="N31" s="5"/>
       <c r="O31" s="5"/>
       <c r="P31" s="7"/>
       <c r="Q31" s="7"/>
       <c r="R31" s="7"/>
-      <c r="S31" s="5"/>
+      <c r="S31" s="5" t="s">
+        <v>556</v>
+      </c>
     </row>
     <row r="32" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
@@ -4144,15 +4143,15 @@
       <c r="L32" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="M32" s="5" t="s">
-        <v>560</v>
-      </c>
+      <c r="M32" s="5"/>
       <c r="N32" s="5"/>
       <c r="O32" s="5"/>
       <c r="P32" s="7"/>
       <c r="Q32" s="7"/>
       <c r="R32" s="7"/>
-      <c r="S32" s="5"/>
+      <c r="S32" s="5" t="s">
+        <v>560</v>
+      </c>
     </row>
     <row r="33" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
@@ -4191,15 +4190,15 @@
       <c r="L33" s="5" t="s">
         <v>564</v>
       </c>
-      <c r="M33" s="5" t="s">
-        <v>597</v>
-      </c>
+      <c r="M33" s="5"/>
       <c r="N33" s="5"/>
       <c r="O33" s="5"/>
       <c r="P33" s="7"/>
       <c r="Q33" s="7"/>
       <c r="R33" s="7"/>
-      <c r="S33" s="5"/>
+      <c r="S33" s="5" t="s">
+        <v>597</v>
+      </c>
     </row>
     <row r="34" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
@@ -4236,15 +4235,15 @@
       <c r="L34" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="M34" s="5" t="s">
-        <v>560</v>
-      </c>
+      <c r="M34" s="5"/>
       <c r="N34" s="5"/>
       <c r="O34" s="5"/>
       <c r="P34" s="7"/>
       <c r="Q34" s="7"/>
       <c r="R34" s="7"/>
-      <c r="S34" s="5"/>
+      <c r="S34" s="5" t="s">
+        <v>560</v>
+      </c>
     </row>
     <row r="35" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
@@ -4281,15 +4280,15 @@
       <c r="L35" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="M35" s="5" t="s">
-        <v>550</v>
-      </c>
+      <c r="M35" s="5"/>
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
       <c r="P35" s="7"/>
       <c r="Q35" s="7"/>
       <c r="R35" s="7"/>
-      <c r="S35" s="5"/>
+      <c r="S35" s="5" t="s">
+        <v>550</v>
+      </c>
     </row>
     <row r="36" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
@@ -4328,15 +4327,15 @@
       <c r="L36" s="5" t="s">
         <v>564</v>
       </c>
-      <c r="M36" s="5" t="s">
-        <v>601</v>
-      </c>
+      <c r="M36" s="5"/>
       <c r="N36" s="5"/>
       <c r="O36" s="5"/>
       <c r="P36" s="7"/>
       <c r="Q36" s="7"/>
       <c r="R36" s="7"/>
-      <c r="S36" s="5"/>
+      <c r="S36" s="5" t="s">
+        <v>601</v>
+      </c>
     </row>
     <row r="37" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
@@ -4373,15 +4372,15 @@
       <c r="L37" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="M37" s="5" t="s">
-        <v>550</v>
-      </c>
+      <c r="M37" s="5"/>
       <c r="N37" s="5"/>
       <c r="O37" s="5"/>
       <c r="P37" s="7"/>
       <c r="Q37" s="7"/>
       <c r="R37" s="7"/>
-      <c r="S37" s="5"/>
+      <c r="S37" s="5" t="s">
+        <v>550</v>
+      </c>
     </row>
     <row r="38" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
@@ -4420,15 +4419,15 @@
       <c r="L38" s="5" t="s">
         <v>574</v>
       </c>
-      <c r="M38" s="5" t="s">
-        <v>604</v>
-      </c>
+      <c r="M38" s="5"/>
       <c r="N38" s="5"/>
       <c r="O38" s="5"/>
       <c r="P38" s="7"/>
       <c r="Q38" s="7"/>
       <c r="R38" s="7"/>
-      <c r="S38" s="5"/>
+      <c r="S38" s="5" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="39" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
@@ -4467,15 +4466,15 @@
       <c r="L39" s="5" t="s">
         <v>539</v>
       </c>
-      <c r="M39" s="5" t="s">
-        <v>605</v>
-      </c>
+      <c r="M39" s="5"/>
       <c r="N39" s="5"/>
       <c r="O39" s="5"/>
       <c r="P39" s="7"/>
       <c r="Q39" s="7"/>
       <c r="R39" s="7"/>
-      <c r="S39" s="5"/>
+      <c r="S39" s="5" t="s">
+        <v>605</v>
+      </c>
     </row>
     <row r="40" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
@@ -4512,15 +4511,15 @@
       <c r="L40" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="M40" s="5" t="s">
-        <v>560</v>
-      </c>
+      <c r="M40" s="5"/>
       <c r="N40" s="5"/>
       <c r="O40" s="5"/>
       <c r="P40" s="7"/>
       <c r="Q40" s="7"/>
       <c r="R40" s="7"/>
-      <c r="S40" s="5"/>
+      <c r="S40" s="5" t="s">
+        <v>560</v>
+      </c>
     </row>
     <row r="41" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
@@ -4557,15 +4556,15 @@
       <c r="L41" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="M41" s="5" t="s">
-        <v>560</v>
-      </c>
+      <c r="M41" s="5"/>
       <c r="N41" s="5"/>
       <c r="O41" s="5"/>
       <c r="P41" s="7"/>
       <c r="Q41" s="7"/>
       <c r="R41" s="7"/>
-      <c r="S41" s="5"/>
+      <c r="S41" s="5" t="s">
+        <v>560</v>
+      </c>
     </row>
     <row r="42" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
@@ -4602,15 +4601,15 @@
       <c r="L42" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="M42" s="5" t="s">
-        <v>609</v>
-      </c>
+      <c r="M42" s="5"/>
       <c r="N42" s="5"/>
       <c r="O42" s="5"/>
       <c r="P42" s="7"/>
       <c r="Q42" s="7"/>
       <c r="R42" s="7"/>
-      <c r="S42" s="5"/>
+      <c r="S42" s="5" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="43" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
@@ -4649,15 +4648,15 @@
       <c r="L43" s="5" t="s">
         <v>612</v>
       </c>
-      <c r="M43" s="5" t="s">
-        <v>613</v>
-      </c>
+      <c r="M43" s="5"/>
       <c r="N43" s="5"/>
       <c r="O43" s="5"/>
       <c r="P43" s="7"/>
       <c r="Q43" s="7"/>
       <c r="R43" s="7"/>
-      <c r="S43" s="5"/>
+      <c r="S43" s="5" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="44" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
@@ -4694,15 +4693,15 @@
       <c r="L44" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="M44" s="5" t="s">
-        <v>614</v>
-      </c>
+      <c r="M44" s="5"/>
       <c r="N44" s="5"/>
       <c r="O44" s="5"/>
       <c r="P44" s="7"/>
       <c r="Q44" s="7"/>
       <c r="R44" s="7"/>
-      <c r="S44" s="5"/>
+      <c r="S44" s="5" t="s">
+        <v>614</v>
+      </c>
     </row>
     <row r="45" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
@@ -4739,15 +4738,15 @@
       <c r="L45" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="M45" s="5" t="s">
-        <v>560</v>
-      </c>
+      <c r="M45" s="5"/>
       <c r="N45" s="5"/>
       <c r="O45" s="5"/>
       <c r="P45" s="7"/>
       <c r="Q45" s="7"/>
       <c r="R45" s="7"/>
-      <c r="S45" s="5"/>
+      <c r="S45" s="5" t="s">
+        <v>560</v>
+      </c>
     </row>
     <row r="46" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
@@ -4784,15 +4783,15 @@
       <c r="L46" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="M46" s="5" t="s">
-        <v>560</v>
-      </c>
+      <c r="M46" s="5"/>
       <c r="N46" s="5"/>
       <c r="O46" s="5"/>
       <c r="P46" s="7"/>
       <c r="Q46" s="7"/>
       <c r="R46" s="7"/>
-      <c r="S46" s="5"/>
+      <c r="S46" s="5" t="s">
+        <v>560</v>
+      </c>
     </row>
     <row r="47" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
@@ -4829,15 +4828,15 @@
       <c r="L47" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="M47" s="5" t="s">
-        <v>560</v>
-      </c>
+      <c r="M47" s="5"/>
       <c r="N47" s="5"/>
       <c r="O47" s="5"/>
       <c r="P47" s="7"/>
       <c r="Q47" s="7"/>
       <c r="R47" s="7"/>
-      <c r="S47" s="5"/>
+      <c r="S47" s="5" t="s">
+        <v>560</v>
+      </c>
     </row>
     <row r="48" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
@@ -4917,15 +4916,15 @@
         <v>620</v>
       </c>
       <c r="L49" s="5"/>
-      <c r="M49" s="5" t="s">
-        <v>621</v>
-      </c>
+      <c r="M49" s="5"/>
       <c r="N49" s="5"/>
       <c r="O49" s="5"/>
       <c r="P49" s="7"/>
       <c r="Q49" s="7"/>
       <c r="R49" s="7"/>
-      <c r="S49" s="5"/>
+      <c r="S49" s="5" t="s">
+        <v>621</v>
+      </c>
     </row>
     <row r="50" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
@@ -4962,15 +4961,15 @@
       <c r="L50" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="M50" s="5" t="s">
-        <v>560</v>
-      </c>
+      <c r="M50" s="5"/>
       <c r="N50" s="5"/>
       <c r="O50" s="5"/>
       <c r="P50" s="7"/>
       <c r="Q50" s="7"/>
       <c r="R50" s="7"/>
-      <c r="S50" s="5"/>
+      <c r="S50" s="5" t="s">
+        <v>560</v>
+      </c>
     </row>
     <row r="51" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
@@ -5007,15 +5006,15 @@
       <c r="L51" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="M51" s="5" t="s">
-        <v>560</v>
-      </c>
+      <c r="M51" s="5"/>
       <c r="N51" s="5"/>
       <c r="O51" s="5"/>
       <c r="P51" s="7"/>
       <c r="Q51" s="7"/>
       <c r="R51" s="7"/>
-      <c r="S51" s="5"/>
+      <c r="S51" s="5" t="s">
+        <v>560</v>
+      </c>
     </row>
     <row r="52" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
@@ -5054,15 +5053,15 @@
       <c r="L52" s="5" t="s">
         <v>539</v>
       </c>
-      <c r="M52" s="5" t="s">
-        <v>625</v>
-      </c>
+      <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
       <c r="P52" s="7"/>
       <c r="Q52" s="7"/>
       <c r="R52" s="7"/>
-      <c r="S52" s="5"/>
+      <c r="S52" s="5" t="s">
+        <v>625</v>
+      </c>
     </row>
     <row r="53" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
@@ -5099,15 +5098,15 @@
       <c r="L53" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="M53" s="5" t="s">
-        <v>560</v>
-      </c>
+      <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
       <c r="P53" s="7"/>
       <c r="Q53" s="7"/>
       <c r="R53" s="7"/>
-      <c r="S53" s="5"/>
+      <c r="S53" s="5" t="s">
+        <v>560</v>
+      </c>
     </row>
     <row r="54" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
@@ -5191,15 +5190,15 @@
       <c r="L55" s="5" t="s">
         <v>631</v>
       </c>
-      <c r="M55" s="5" t="s">
-        <v>632</v>
-      </c>
+      <c r="M55" s="5"/>
       <c r="N55" s="5"/>
       <c r="O55" s="5"/>
       <c r="P55" s="7"/>
       <c r="Q55" s="7"/>
       <c r="R55" s="7"/>
-      <c r="S55" s="5"/>
+      <c r="S55" s="5" t="s">
+        <v>632</v>
+      </c>
     </row>
     <row r="56" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
@@ -5236,15 +5235,15 @@
       <c r="L56" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="M56" s="5" t="s">
-        <v>550</v>
-      </c>
+      <c r="M56" s="5"/>
       <c r="N56" s="5"/>
       <c r="O56" s="5"/>
       <c r="P56" s="7"/>
       <c r="Q56" s="7"/>
       <c r="R56" s="7"/>
-      <c r="S56" s="5"/>
+      <c r="S56" s="5" t="s">
+        <v>550</v>
+      </c>
     </row>
     <row r="57" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
@@ -5283,15 +5282,15 @@
       <c r="L57" s="5" t="s">
         <v>539</v>
       </c>
-      <c r="M57" s="5" t="s">
-        <v>635</v>
-      </c>
+      <c r="M57" s="5"/>
       <c r="N57" s="5"/>
       <c r="O57" s="5"/>
       <c r="P57" s="7"/>
       <c r="Q57" s="7"/>
       <c r="R57" s="7"/>
-      <c r="S57" s="5"/>
+      <c r="S57" s="5" t="s">
+        <v>635</v>
+      </c>
     </row>
     <row r="58" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
@@ -5328,15 +5327,15 @@
       <c r="L58" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="M58" s="5" t="s">
-        <v>637</v>
-      </c>
+      <c r="M58" s="5"/>
       <c r="N58" s="5"/>
       <c r="O58" s="5"/>
       <c r="P58" s="7"/>
       <c r="Q58" s="7"/>
       <c r="R58" s="7"/>
-      <c r="S58" s="5"/>
+      <c r="S58" s="5" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="59" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
@@ -5375,15 +5374,15 @@
       <c r="L59" s="5" t="s">
         <v>539</v>
       </c>
-      <c r="M59" s="5" t="s">
-        <v>639</v>
-      </c>
+      <c r="M59" s="5"/>
       <c r="N59" s="5"/>
       <c r="O59" s="5"/>
       <c r="P59" s="7"/>
       <c r="Q59" s="7"/>
       <c r="R59" s="7"/>
-      <c r="S59" s="5"/>
+      <c r="S59" s="5" t="s">
+        <v>639</v>
+      </c>
     </row>
     <row r="60" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
@@ -5422,15 +5421,15 @@
       <c r="L60" s="5" t="s">
         <v>641</v>
       </c>
-      <c r="M60" s="5" t="s">
-        <v>642</v>
-      </c>
+      <c r="M60" s="5"/>
       <c r="N60" s="5"/>
       <c r="O60" s="5"/>
       <c r="P60" s="7"/>
       <c r="Q60" s="7"/>
       <c r="R60" s="7"/>
-      <c r="S60" s="5"/>
+      <c r="S60" s="5" t="s">
+        <v>642</v>
+      </c>
     </row>
     <row r="61" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
@@ -5467,15 +5466,15 @@
       <c r="L61" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="M61" s="5" t="s">
-        <v>644</v>
-      </c>
+      <c r="M61" s="5"/>
       <c r="N61" s="5"/>
       <c r="O61" s="5"/>
       <c r="P61" s="7"/>
       <c r="Q61" s="7"/>
       <c r="R61" s="7"/>
-      <c r="S61" s="5"/>
+      <c r="S61" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="62" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
@@ -5514,15 +5513,15 @@
       <c r="L62" s="5" t="s">
         <v>647</v>
       </c>
-      <c r="M62" s="5" t="s">
-        <v>648</v>
-      </c>
+      <c r="M62" s="5"/>
       <c r="N62" s="5"/>
       <c r="O62" s="5"/>
       <c r="P62" s="7"/>
       <c r="Q62" s="7"/>
       <c r="R62" s="7"/>
-      <c r="S62" s="5"/>
+      <c r="S62" s="5" t="s">
+        <v>648</v>
+      </c>
     </row>
     <row r="63" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
@@ -5561,15 +5560,15 @@
       <c r="L63" s="5" t="s">
         <v>590</v>
       </c>
-      <c r="M63" s="5" t="s">
-        <v>650</v>
-      </c>
+      <c r="M63" s="5"/>
       <c r="N63" s="5"/>
       <c r="O63" s="5"/>
       <c r="P63" s="7"/>
       <c r="Q63" s="7"/>
       <c r="R63" s="7"/>
-      <c r="S63" s="5"/>
+      <c r="S63" s="5" t="s">
+        <v>650</v>
+      </c>
     </row>
     <row r="64" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
@@ -5606,15 +5605,15 @@
       <c r="L64" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="M64" s="5" t="s">
-        <v>560</v>
-      </c>
+      <c r="M64" s="5"/>
       <c r="N64" s="5"/>
       <c r="O64" s="5"/>
       <c r="P64" s="7"/>
       <c r="Q64" s="7"/>
       <c r="R64" s="7"/>
-      <c r="S64" s="5"/>
+      <c r="S64" s="5" t="s">
+        <v>560</v>
+      </c>
     </row>
     <row r="65" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
@@ -5653,15 +5652,15 @@
       <c r="L65" s="5" t="s">
         <v>654</v>
       </c>
-      <c r="M65" s="5" t="s">
-        <v>655</v>
-      </c>
+      <c r="M65" s="5"/>
       <c r="N65" s="5"/>
       <c r="O65" s="5"/>
       <c r="P65" s="7"/>
       <c r="Q65" s="7"/>
       <c r="R65" s="7"/>
-      <c r="S65" s="5"/>
+      <c r="S65" s="5" t="s">
+        <v>655</v>
+      </c>
     </row>
     <row r="66" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
@@ -5700,15 +5699,15 @@
       <c r="L66" s="5" t="s">
         <v>564</v>
       </c>
-      <c r="M66" s="5" t="s">
-        <v>657</v>
-      </c>
+      <c r="M66" s="5"/>
       <c r="N66" s="5"/>
       <c r="O66" s="5"/>
       <c r="P66" s="7"/>
       <c r="Q66" s="7"/>
       <c r="R66" s="7"/>
-      <c r="S66" s="5"/>
+      <c r="S66" s="5" t="s">
+        <v>657</v>
+      </c>
     </row>
     <row r="67" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
@@ -5745,15 +5744,15 @@
       <c r="L67" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="M67" s="5" t="s">
-        <v>560</v>
-      </c>
+      <c r="M67" s="5"/>
       <c r="N67" s="5"/>
       <c r="O67" s="5"/>
       <c r="P67" s="7"/>
       <c r="Q67" s="7"/>
       <c r="R67" s="7"/>
-      <c r="S67" s="5"/>
+      <c r="S67" s="5" t="s">
+        <v>560</v>
+      </c>
     </row>
     <row r="68" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
@@ -5792,15 +5791,15 @@
       <c r="L68" s="5" t="s">
         <v>660</v>
       </c>
-      <c r="M68" s="5" t="s">
-        <v>661</v>
-      </c>
+      <c r="M68" s="5"/>
       <c r="N68" s="5"/>
       <c r="O68" s="5"/>
       <c r="P68" s="7"/>
       <c r="Q68" s="7"/>
       <c r="R68" s="7"/>
-      <c r="S68" s="5"/>
+      <c r="S68" s="5" t="s">
+        <v>661</v>
+      </c>
     </row>
     <row r="69" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
@@ -5882,15 +5881,15 @@
       <c r="L70" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="M70" s="5" t="s">
-        <v>550</v>
-      </c>
+      <c r="M70" s="5"/>
       <c r="N70" s="5"/>
       <c r="O70" s="5"/>
       <c r="P70" s="7"/>
       <c r="Q70" s="7"/>
       <c r="R70" s="7"/>
-      <c r="S70" s="5"/>
+      <c r="S70" s="5" t="s">
+        <v>550</v>
+      </c>
     </row>
     <row r="71" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
@@ -5927,15 +5926,15 @@
       <c r="L71" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="M71" s="5" t="s">
-        <v>550</v>
-      </c>
+      <c r="M71" s="5"/>
       <c r="N71" s="5"/>
       <c r="O71" s="5"/>
       <c r="P71" s="7"/>
       <c r="Q71" s="7"/>
       <c r="R71" s="7"/>
-      <c r="S71" s="5"/>
+      <c r="S71" s="5" t="s">
+        <v>550</v>
+      </c>
     </row>
     <row r="72" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A72" s="3">
@@ -5972,15 +5971,15 @@
       <c r="L72" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="M72" s="5" t="s">
-        <v>550</v>
-      </c>
+      <c r="M72" s="5"/>
       <c r="N72" s="5"/>
       <c r="O72" s="5"/>
       <c r="P72" s="7"/>
       <c r="Q72" s="7"/>
       <c r="R72" s="7"/>
-      <c r="S72" s="5"/>
+      <c r="S72" s="5" t="s">
+        <v>550</v>
+      </c>
     </row>
     <row r="73" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
@@ -6017,15 +6016,15 @@
       <c r="L73" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="M73" s="5" t="s">
-        <v>550</v>
-      </c>
+      <c r="M73" s="5"/>
       <c r="N73" s="5"/>
       <c r="O73" s="5"/>
       <c r="P73" s="7"/>
       <c r="Q73" s="7"/>
       <c r="R73" s="7"/>
-      <c r="S73" s="5"/>
+      <c r="S73" s="5" t="s">
+        <v>550</v>
+      </c>
     </row>
     <row r="74" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
@@ -6109,15 +6108,15 @@
       <c r="L75" s="5" t="s">
         <v>564</v>
       </c>
-      <c r="M75" s="5" t="s">
-        <v>668</v>
-      </c>
+      <c r="M75" s="5"/>
       <c r="N75" s="5"/>
       <c r="O75" s="5"/>
       <c r="P75" s="7"/>
       <c r="Q75" s="7"/>
       <c r="R75" s="7"/>
-      <c r="S75" s="5"/>
+      <c r="S75" s="5" t="s">
+        <v>668</v>
+      </c>
     </row>
     <row r="76" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A76" s="3">
@@ -6154,15 +6153,15 @@
       <c r="L76" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="M76" s="5" t="s">
-        <v>560</v>
-      </c>
+      <c r="M76" s="5"/>
       <c r="N76" s="5"/>
       <c r="O76" s="5"/>
       <c r="P76" s="7"/>
       <c r="Q76" s="7"/>
       <c r="R76" s="7"/>
-      <c r="S76" s="5"/>
+      <c r="S76" s="5" t="s">
+        <v>560</v>
+      </c>
     </row>
     <row r="77" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A77" s="3">
@@ -6201,15 +6200,15 @@
       <c r="L77" s="5" t="s">
         <v>539</v>
       </c>
-      <c r="M77" s="5" t="s">
-        <v>671</v>
-      </c>
+      <c r="M77" s="5"/>
       <c r="N77" s="5"/>
       <c r="O77" s="5"/>
       <c r="P77" s="7"/>
       <c r="Q77" s="7"/>
       <c r="R77" s="7"/>
-      <c r="S77" s="5"/>
+      <c r="S77" s="5" t="s">
+        <v>671</v>
+      </c>
     </row>
     <row r="78" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
@@ -6248,15 +6247,15 @@
       <c r="L78" s="5" t="s">
         <v>574</v>
       </c>
-      <c r="M78" s="5" t="s">
-        <v>673</v>
-      </c>
+      <c r="M78" s="5"/>
       <c r="N78" s="5"/>
       <c r="O78" s="5"/>
       <c r="P78" s="7"/>
       <c r="Q78" s="7"/>
       <c r="R78" s="7"/>
-      <c r="S78" s="5"/>
+      <c r="S78" s="5" t="s">
+        <v>673</v>
+      </c>
     </row>
     <row r="79" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A79" s="3">
@@ -6293,15 +6292,15 @@
       <c r="L79" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="M79" s="5" t="s">
-        <v>560</v>
-      </c>
+      <c r="M79" s="5"/>
       <c r="N79" s="5"/>
       <c r="O79" s="5"/>
       <c r="P79" s="7"/>
       <c r="Q79" s="7"/>
       <c r="R79" s="7"/>
-      <c r="S79" s="5"/>
+      <c r="S79" s="5" t="s">
+        <v>560</v>
+      </c>
     </row>
     <row r="80" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A80" s="3">
@@ -6338,15 +6337,15 @@
       <c r="L80" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="M80" s="5" t="s">
-        <v>676</v>
-      </c>
+      <c r="M80" s="5"/>
       <c r="N80" s="5"/>
       <c r="O80" s="5"/>
       <c r="P80" s="7"/>
       <c r="Q80" s="7"/>
       <c r="R80" s="7"/>
-      <c r="S80" s="5"/>
+      <c r="S80" s="5" t="s">
+        <v>676</v>
+      </c>
     </row>
     <row r="81" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
@@ -6381,15 +6380,15 @@
         <v>620</v>
       </c>
       <c r="L81" s="5"/>
-      <c r="M81" s="5" t="s">
-        <v>678</v>
-      </c>
+      <c r="M81" s="5"/>
       <c r="N81" s="5"/>
       <c r="O81" s="5"/>
       <c r="P81" s="7"/>
       <c r="Q81" s="7"/>
       <c r="R81" s="7"/>
-      <c r="S81" s="5"/>
+      <c r="S81" s="5" t="s">
+        <v>678</v>
+      </c>
     </row>
     <row r="82" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
@@ -6473,15 +6472,15 @@
       <c r="L83" s="5" t="s">
         <v>574</v>
       </c>
-      <c r="M83" s="5" t="s">
-        <v>681</v>
-      </c>
+      <c r="M83" s="5"/>
       <c r="N83" s="5"/>
       <c r="O83" s="5"/>
       <c r="P83" s="7"/>
       <c r="Q83" s="7"/>
       <c r="R83" s="7"/>
-      <c r="S83" s="5"/>
+      <c r="S83" s="5" t="s">
+        <v>681</v>
+      </c>
     </row>
     <row r="84" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A84" s="3">
@@ -6516,15 +6515,15 @@
         <v>620</v>
       </c>
       <c r="L84" s="5"/>
-      <c r="M84" s="5" t="s">
-        <v>683</v>
-      </c>
+      <c r="M84" s="5"/>
       <c r="N84" s="5"/>
       <c r="O84" s="5"/>
       <c r="P84" s="7"/>
       <c r="Q84" s="7"/>
       <c r="R84" s="7"/>
-      <c r="S84" s="5"/>
+      <c r="S84" s="5" t="s">
+        <v>683</v>
+      </c>
     </row>
     <row r="85" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A85" s="3">
@@ -6606,15 +6605,15 @@
       <c r="L86" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="M86" s="5" t="s">
-        <v>686</v>
-      </c>
+      <c r="M86" s="5"/>
       <c r="N86" s="5"/>
       <c r="O86" s="5"/>
       <c r="P86" s="7"/>
       <c r="Q86" s="7"/>
       <c r="R86" s="7"/>
-      <c r="S86" s="5"/>
+      <c r="S86" s="5" t="s">
+        <v>686</v>
+      </c>
     </row>
     <row r="87" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A87" s="3">
@@ -6651,15 +6650,15 @@
       <c r="L87" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="M87" s="5" t="s">
-        <v>560</v>
-      </c>
+      <c r="M87" s="5"/>
       <c r="N87" s="5"/>
       <c r="O87" s="5"/>
       <c r="P87" s="7"/>
       <c r="Q87" s="7"/>
       <c r="R87" s="7"/>
-      <c r="S87" s="5"/>
+      <c r="S87" s="5" t="s">
+        <v>560</v>
+      </c>
     </row>
     <row r="88" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A88" s="3">
@@ -6698,15 +6697,15 @@
       <c r="L88" s="5" t="s">
         <v>689</v>
       </c>
-      <c r="M88" s="5" t="s">
-        <v>690</v>
-      </c>
+      <c r="M88" s="5"/>
       <c r="N88" s="5"/>
       <c r="O88" s="5"/>
       <c r="P88" s="7"/>
       <c r="Q88" s="7"/>
       <c r="R88" s="7"/>
-      <c r="S88" s="5"/>
+      <c r="S88" s="5" t="s">
+        <v>690</v>
+      </c>
     </row>
     <row r="89" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A89" s="3">
@@ -6790,15 +6789,15 @@
       <c r="L90" s="5" t="s">
         <v>696</v>
       </c>
-      <c r="M90" s="5" t="s">
-        <v>697</v>
-      </c>
+      <c r="M90" s="5"/>
       <c r="N90" s="5"/>
       <c r="O90" s="5"/>
       <c r="P90" s="7"/>
       <c r="Q90" s="7"/>
       <c r="R90" s="7"/>
-      <c r="S90" s="5"/>
+      <c r="S90" s="5" t="s">
+        <v>697</v>
+      </c>
     </row>
     <row r="91" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A91" s="3">
@@ -6837,15 +6836,15 @@
       <c r="L91" s="5" t="s">
         <v>564</v>
       </c>
-      <c r="M91" s="5" t="s">
-        <v>699</v>
-      </c>
+      <c r="M91" s="5"/>
       <c r="N91" s="5"/>
       <c r="O91" s="5"/>
       <c r="P91" s="7"/>
       <c r="Q91" s="7"/>
       <c r="R91" s="7"/>
-      <c r="S91" s="5"/>
+      <c r="S91" s="5" t="s">
+        <v>699</v>
+      </c>
     </row>
     <row r="92" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A92" s="3">
@@ -6882,15 +6881,15 @@
       <c r="L92" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="M92" s="5" t="s">
-        <v>701</v>
-      </c>
+      <c r="M92" s="5"/>
       <c r="N92" s="5"/>
       <c r="O92" s="5"/>
       <c r="P92" s="7"/>
       <c r="Q92" s="7"/>
       <c r="R92" s="7"/>
-      <c r="S92" s="5"/>
+      <c r="S92" s="5" t="s">
+        <v>701</v>
+      </c>
     </row>
     <row r="93" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A93" s="3">
@@ -6925,15 +6924,15 @@
         <v>620</v>
       </c>
       <c r="L93" s="5"/>
-      <c r="M93" s="5" t="s">
-        <v>703</v>
-      </c>
+      <c r="M93" s="5"/>
       <c r="N93" s="5"/>
       <c r="O93" s="5"/>
       <c r="P93" s="7"/>
       <c r="Q93" s="7"/>
       <c r="R93" s="7"/>
-      <c r="S93" s="5"/>
+      <c r="S93" s="5" t="s">
+        <v>703</v>
+      </c>
     </row>
     <row r="94" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A94" s="3">
@@ -6970,15 +6969,15 @@
       <c r="L94" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="M94" s="5" t="s">
-        <v>550</v>
-      </c>
+      <c r="M94" s="5"/>
       <c r="N94" s="5"/>
       <c r="O94" s="5"/>
       <c r="P94" s="7"/>
       <c r="Q94" s="7"/>
       <c r="R94" s="7"/>
-      <c r="S94" s="5"/>
+      <c r="S94" s="5" t="s">
+        <v>550</v>
+      </c>
     </row>
     <row r="95" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A95" s="3">
@@ -7105,15 +7104,15 @@
       <c r="L97" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="M97" s="5" t="s">
-        <v>560</v>
-      </c>
+      <c r="M97" s="5"/>
       <c r="N97" s="5"/>
       <c r="O97" s="5"/>
       <c r="P97" s="7"/>
       <c r="Q97" s="7"/>
       <c r="R97" s="7"/>
-      <c r="S97" s="5"/>
+      <c r="S97" s="5" t="s">
+        <v>560</v>
+      </c>
     </row>
     <row r="98" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A98" s="3">
@@ -7150,15 +7149,15 @@
       <c r="L98" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="M98" s="5" t="s">
-        <v>709</v>
-      </c>
+      <c r="M98" s="5"/>
       <c r="N98" s="5"/>
       <c r="O98" s="5"/>
       <c r="P98" s="7"/>
       <c r="Q98" s="7"/>
       <c r="R98" s="7"/>
-      <c r="S98" s="5"/>
+      <c r="S98" s="5" t="s">
+        <v>709</v>
+      </c>
     </row>
     <row r="99" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A99" s="3">
@@ -7197,15 +7196,15 @@
       <c r="L99" s="5" t="s">
         <v>564</v>
       </c>
-      <c r="M99" s="5" t="s">
-        <v>711</v>
-      </c>
+      <c r="M99" s="5"/>
       <c r="N99" s="5"/>
       <c r="O99" s="5"/>
       <c r="P99" s="7"/>
       <c r="Q99" s="7"/>
       <c r="R99" s="7"/>
-      <c r="S99" s="5"/>
+      <c r="S99" s="5" t="s">
+        <v>711</v>
+      </c>
     </row>
     <row r="100" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A100" s="3">
@@ -7244,15 +7243,15 @@
       <c r="L100" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="M100" s="5" t="s">
-        <v>712</v>
-      </c>
+      <c r="M100" s="5"/>
       <c r="N100" s="5"/>
       <c r="O100" s="5"/>
       <c r="P100" s="7"/>
       <c r="Q100" s="7"/>
       <c r="R100" s="7"/>
-      <c r="S100" s="5"/>
+      <c r="S100" s="5" t="s">
+        <v>712</v>
+      </c>
     </row>
     <row r="101" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A101" s="3">
@@ -7291,15 +7290,15 @@
       <c r="L101" s="5" t="s">
         <v>539</v>
       </c>
-      <c r="M101" s="5" t="s">
-        <v>714</v>
-      </c>
+      <c r="M101" s="5"/>
       <c r="N101" s="5"/>
       <c r="O101" s="5"/>
       <c r="P101" s="7"/>
       <c r="Q101" s="7"/>
       <c r="R101" s="7"/>
-      <c r="S101" s="5"/>
+      <c r="S101" s="5" t="s">
+        <v>714</v>
+      </c>
     </row>
     <row r="102" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A102" s="3">
@@ -7336,15 +7335,15 @@
       <c r="L102" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="M102" s="5" t="s">
-        <v>560</v>
-      </c>
+      <c r="M102" s="5"/>
       <c r="N102" s="5"/>
       <c r="O102" s="5"/>
       <c r="P102" s="7"/>
       <c r="Q102" s="7"/>
       <c r="R102" s="7"/>
-      <c r="S102" s="5"/>
+      <c r="S102" s="5" t="s">
+        <v>560</v>
+      </c>
     </row>
     <row r="103" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A103" s="3">
@@ -7381,15 +7380,15 @@
       <c r="L103" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="M103" s="5" t="s">
-        <v>550</v>
-      </c>
+      <c r="M103" s="5"/>
       <c r="N103" s="5"/>
       <c r="O103" s="5"/>
       <c r="P103" s="7"/>
       <c r="Q103" s="7"/>
       <c r="R103" s="7"/>
-      <c r="S103" s="5"/>
+      <c r="S103" s="5" t="s">
+        <v>550</v>
+      </c>
     </row>
     <row r="104" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A104" s="3">
@@ -7426,15 +7425,15 @@
       <c r="L104" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="M104" s="5" t="s">
-        <v>560</v>
-      </c>
+      <c r="M104" s="5"/>
       <c r="N104" s="5"/>
       <c r="O104" s="5"/>
       <c r="P104" s="7"/>
       <c r="Q104" s="7"/>
       <c r="R104" s="7"/>
-      <c r="S104" s="5"/>
+      <c r="S104" s="5" t="s">
+        <v>560</v>
+      </c>
     </row>
     <row r="105" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A105" s="3">
@@ -7473,15 +7472,15 @@
       <c r="L105" s="5" t="s">
         <v>555</v>
       </c>
-      <c r="M105" s="5" t="s">
-        <v>718</v>
-      </c>
+      <c r="M105" s="5"/>
       <c r="N105" s="5"/>
       <c r="O105" s="5"/>
       <c r="P105" s="7"/>
       <c r="Q105" s="7"/>
       <c r="R105" s="7"/>
-      <c r="S105" s="5"/>
+      <c r="S105" s="5" t="s">
+        <v>718</v>
+      </c>
     </row>
     <row r="106" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A106" s="3">
@@ -7518,15 +7517,15 @@
       <c r="L106" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="M106" s="5" t="s">
-        <v>560</v>
-      </c>
+      <c r="M106" s="5"/>
       <c r="N106" s="5"/>
       <c r="O106" s="5"/>
       <c r="P106" s="7"/>
       <c r="Q106" s="7"/>
       <c r="R106" s="7"/>
-      <c r="S106" s="5"/>
+      <c r="S106" s="5" t="s">
+        <v>560</v>
+      </c>
     </row>
     <row r="107" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A107" s="3">
@@ -7563,15 +7562,15 @@
       <c r="L107" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="M107" s="5" t="s">
-        <v>560</v>
-      </c>
+      <c r="M107" s="5"/>
       <c r="N107" s="5"/>
       <c r="O107" s="5"/>
       <c r="P107" s="7"/>
       <c r="Q107" s="7"/>
       <c r="R107" s="7"/>
-      <c r="S107" s="5"/>
+      <c r="S107" s="5" t="s">
+        <v>560</v>
+      </c>
     </row>
     <row r="108" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A108" s="3">
@@ -7608,15 +7607,15 @@
       <c r="L108" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="M108" s="5" t="s">
-        <v>560</v>
-      </c>
+      <c r="M108" s="5"/>
       <c r="N108" s="5"/>
       <c r="O108" s="5"/>
       <c r="P108" s="7"/>
       <c r="Q108" s="7"/>
       <c r="R108" s="7"/>
-      <c r="S108" s="5"/>
+      <c r="S108" s="5" t="s">
+        <v>560</v>
+      </c>
     </row>
     <row r="109" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A109" s="3">
@@ -7653,15 +7652,15 @@
       <c r="L109" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="M109" s="5" t="s">
-        <v>560</v>
-      </c>
+      <c r="M109" s="5"/>
       <c r="N109" s="5"/>
       <c r="O109" s="5"/>
       <c r="P109" s="7"/>
       <c r="Q109" s="7"/>
       <c r="R109" s="7"/>
-      <c r="S109" s="5"/>
+      <c r="S109" s="5" t="s">
+        <v>560</v>
+      </c>
     </row>
     <row r="110" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A110" s="3">
@@ -7698,15 +7697,15 @@
       <c r="L110" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="M110" s="5" t="s">
-        <v>560</v>
-      </c>
+      <c r="M110" s="5"/>
       <c r="N110" s="5"/>
       <c r="O110" s="5"/>
       <c r="P110" s="7"/>
       <c r="Q110" s="7"/>
       <c r="R110" s="7"/>
-      <c r="S110" s="7"/>
+      <c r="S110" s="5" t="s">
+        <v>560</v>
+      </c>
     </row>
     <row r="111" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A111" s="3">
@@ -7743,15 +7742,15 @@
       <c r="L111" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="M111" s="5" t="s">
-        <v>560</v>
-      </c>
+      <c r="M111" s="5"/>
       <c r="N111" s="5"/>
       <c r="O111" s="5"/>
       <c r="P111" s="7"/>
       <c r="Q111" s="7"/>
       <c r="R111" s="7"/>
-      <c r="S111" s="7"/>
+      <c r="S111" s="5" t="s">
+        <v>560</v>
+      </c>
     </row>
     <row r="112" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A112" s="3">
@@ -7796,7 +7795,7 @@
       <c r="P112" s="7"/>
       <c r="Q112" s="7"/>
       <c r="R112" s="7"/>
-      <c r="S112" s="7"/>
+      <c r="S112" s="5"/>
     </row>
     <row r="113" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A113" s="3">
@@ -7835,15 +7834,15 @@
       <c r="L113" s="5" t="s">
         <v>564</v>
       </c>
-      <c r="M113" s="5" t="s">
-        <v>556</v>
-      </c>
+      <c r="M113" s="5"/>
       <c r="N113" s="5"/>
       <c r="O113" s="5"/>
       <c r="P113" s="7"/>
       <c r="Q113" s="7"/>
       <c r="R113" s="7"/>
-      <c r="S113" s="7"/>
+      <c r="S113" s="5" t="s">
+        <v>556</v>
+      </c>
     </row>
     <row r="114" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A114" s="3">
@@ -7880,15 +7879,15 @@
       <c r="L114" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="M114" s="5" t="s">
-        <v>560</v>
-      </c>
+      <c r="M114" s="5"/>
       <c r="N114" s="5"/>
       <c r="O114" s="5"/>
       <c r="P114" s="7"/>
       <c r="Q114" s="7"/>
       <c r="R114" s="7"/>
-      <c r="S114" s="7"/>
+      <c r="S114" s="5" t="s">
+        <v>560</v>
+      </c>
     </row>
     <row r="115" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A115" s="3">
@@ -7925,15 +7924,15 @@
       <c r="L115" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="M115" s="5" t="s">
-        <v>560</v>
-      </c>
+      <c r="M115" s="5"/>
       <c r="N115" s="5"/>
       <c r="O115" s="5"/>
       <c r="P115" s="7"/>
       <c r="Q115" s="7"/>
       <c r="R115" s="7"/>
-      <c r="S115" s="7"/>
+      <c r="S115" s="5" t="s">
+        <v>560</v>
+      </c>
     </row>
     <row r="116" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A116" s="3">
@@ -7970,15 +7969,15 @@
       <c r="L116" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="M116" s="5" t="s">
-        <v>728</v>
-      </c>
+      <c r="M116" s="5"/>
       <c r="N116" s="5"/>
       <c r="O116" s="5"/>
       <c r="P116" s="7"/>
       <c r="Q116" s="7"/>
       <c r="R116" s="7"/>
-      <c r="S116" s="7"/>
+      <c r="S116" s="5" t="s">
+        <v>728</v>
+      </c>
     </row>
     <row r="117" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A117" s="3">
@@ -8023,7 +8022,7 @@
       <c r="P117" s="7"/>
       <c r="Q117" s="7"/>
       <c r="R117" s="7"/>
-      <c r="S117" s="7"/>
+      <c r="S117" s="5"/>
     </row>
     <row r="118" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A118" s="3">
@@ -8068,7 +8067,7 @@
       <c r="P118" s="7"/>
       <c r="Q118" s="7"/>
       <c r="R118" s="7"/>
-      <c r="S118" s="7"/>
+      <c r="S118" s="5"/>
     </row>
     <row r="119" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A119" s="3">
@@ -8107,15 +8106,15 @@
       <c r="L119" s="5" t="s">
         <v>564</v>
       </c>
-      <c r="M119" s="5" t="s">
-        <v>733</v>
-      </c>
+      <c r="M119" s="5"/>
       <c r="N119" s="5"/>
       <c r="O119" s="5"/>
       <c r="P119" s="7"/>
       <c r="Q119" s="7"/>
       <c r="R119" s="7"/>
-      <c r="S119" s="5"/>
+      <c r="S119" s="5" t="s">
+        <v>733</v>
+      </c>
     </row>
     <row r="120" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A120" s="3">
@@ -8152,15 +8151,15 @@
       <c r="L120" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="M120" s="5" t="s">
-        <v>550</v>
-      </c>
+      <c r="M120" s="5"/>
       <c r="N120" s="5"/>
       <c r="O120" s="5"/>
       <c r="P120" s="7"/>
       <c r="Q120" s="7"/>
       <c r="R120" s="7"/>
-      <c r="S120" s="5"/>
+      <c r="S120" s="5" t="s">
+        <v>550</v>
+      </c>
     </row>
     <row r="121" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A121" s="3">
@@ -8195,15 +8194,15 @@
         <v>620</v>
       </c>
       <c r="L121" s="5"/>
-      <c r="M121" s="5" t="s">
-        <v>735</v>
-      </c>
+      <c r="M121" s="5"/>
       <c r="N121" s="5"/>
       <c r="O121" s="5"/>
       <c r="P121" s="7"/>
       <c r="Q121" s="7"/>
       <c r="R121" s="7"/>
-      <c r="S121" s="5"/>
+      <c r="S121" s="5" t="s">
+        <v>735</v>
+      </c>
     </row>
     <row r="122" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A122" s="3">
@@ -8240,15 +8239,15 @@
       <c r="L122" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="M122" s="5" t="s">
-        <v>550</v>
-      </c>
+      <c r="M122" s="5"/>
       <c r="N122" s="5"/>
       <c r="O122" s="5"/>
       <c r="P122" s="7"/>
       <c r="Q122" s="7"/>
       <c r="R122" s="7"/>
-      <c r="S122" s="5"/>
+      <c r="S122" s="5" t="s">
+        <v>550</v>
+      </c>
     </row>
     <row r="123" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A123" s="3">
@@ -8287,15 +8286,15 @@
       <c r="L123" s="5" t="s">
         <v>738</v>
       </c>
-      <c r="M123" s="5" t="s">
-        <v>739</v>
-      </c>
+      <c r="M123" s="5"/>
       <c r="N123" s="5"/>
       <c r="O123" s="5"/>
       <c r="P123" s="7"/>
       <c r="Q123" s="7"/>
       <c r="R123" s="7"/>
-      <c r="S123" s="5"/>
+      <c r="S123" s="5" t="s">
+        <v>739</v>
+      </c>
     </row>
     <row r="124" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A124" s="3">
@@ -8334,15 +8333,15 @@
       <c r="L124" s="5" t="s">
         <v>564</v>
       </c>
-      <c r="M124" s="5" t="s">
-        <v>741</v>
-      </c>
+      <c r="M124" s="5"/>
       <c r="N124" s="5"/>
       <c r="O124" s="5"/>
       <c r="P124" s="7"/>
       <c r="Q124" s="7"/>
       <c r="R124" s="7"/>
-      <c r="S124" s="5"/>
+      <c r="S124" s="5" t="s">
+        <v>741</v>
+      </c>
     </row>
     <row r="125" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A125" s="3">
@@ -8379,15 +8378,15 @@
       <c r="L125" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="M125" s="5" t="s">
-        <v>560</v>
-      </c>
+      <c r="M125" s="5"/>
       <c r="N125" s="5"/>
       <c r="O125" s="5"/>
       <c r="P125" s="7"/>
       <c r="Q125" s="7"/>
       <c r="R125" s="7"/>
-      <c r="S125" s="5"/>
+      <c r="S125" s="5" t="s">
+        <v>560</v>
+      </c>
     </row>
     <row r="126" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A126" s="3">
@@ -8422,15 +8421,15 @@
         <v>620</v>
       </c>
       <c r="L126" s="5"/>
-      <c r="M126" s="5" t="s">
-        <v>743</v>
-      </c>
+      <c r="M126" s="5"/>
       <c r="N126" s="5"/>
       <c r="O126" s="5"/>
       <c r="P126" s="7"/>
       <c r="Q126" s="7"/>
       <c r="R126" s="7"/>
-      <c r="S126" s="5"/>
+      <c r="S126" s="5" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="127" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A127" s="3">
@@ -8465,15 +8464,15 @@
         <v>620</v>
       </c>
       <c r="L127" s="5"/>
-      <c r="M127" s="5" t="s">
-        <v>744</v>
-      </c>
+      <c r="M127" s="5"/>
       <c r="N127" s="5"/>
       <c r="O127" s="5"/>
       <c r="P127" s="7"/>
       <c r="Q127" s="7"/>
       <c r="R127" s="7"/>
-      <c r="S127" s="5"/>
+      <c r="S127" s="5" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="128" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A128" s="3">
@@ -8512,15 +8511,15 @@
       <c r="L128" s="5" t="s">
         <v>747</v>
       </c>
-      <c r="M128" s="5" t="s">
-        <v>748</v>
-      </c>
+      <c r="M128" s="5"/>
       <c r="N128" s="5"/>
       <c r="O128" s="5"/>
       <c r="P128" s="7"/>
       <c r="Q128" s="7"/>
       <c r="R128" s="7"/>
-      <c r="S128" s="5"/>
+      <c r="S128" s="5" t="s">
+        <v>748</v>
+      </c>
     </row>
     <row r="129" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A129" s="3">
@@ -8604,15 +8603,15 @@
       <c r="L130" s="5" t="s">
         <v>539</v>
       </c>
-      <c r="M130" s="5" t="s">
-        <v>749</v>
-      </c>
+      <c r="M130" s="5"/>
       <c r="N130" s="5"/>
       <c r="O130" s="5"/>
       <c r="P130" s="7"/>
       <c r="Q130" s="7"/>
       <c r="R130" s="7"/>
-      <c r="S130" s="5"/>
+      <c r="S130" s="5" t="s">
+        <v>749</v>
+      </c>
     </row>
     <row r="131" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A131" s="3">

--- a/sources/Udi_data.xlsx
+++ b/sources/Udi_data.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="751">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="751">
   <si>
     <t>language_no</t>
   </si>
@@ -2650,9 +2650,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2901,9 +2899,11 @@
         <v>548</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="J5" s="5"/>
+        <v>545</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="K5" s="5" t="s">
         <v>549</v>
       </c>
@@ -3087,9 +3087,11 @@
         <v>559</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="J9" s="5"/>
+        <v>545</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="K9" s="5" t="s">
         <v>549</v>
       </c>
@@ -3132,9 +3134,11 @@
         <v>561</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="J10" s="5"/>
+        <v>545</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="K10" s="5" t="s">
         <v>549</v>
       </c>
@@ -3177,9 +3181,11 @@
         <v>562</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="J11" s="5"/>
+        <v>545</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="K11" s="5" t="s">
         <v>549</v>
       </c>
@@ -3314,9 +3320,11 @@
         <v>567</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="J14" s="5"/>
+        <v>545</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="K14" s="5" t="s">
         <v>549</v>
       </c>
@@ -3404,9 +3412,11 @@
         <v>570</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="J16" s="5"/>
+        <v>545</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="K16" s="5" t="s">
         <v>549</v>
       </c>
@@ -3449,9 +3459,11 @@
         <v>572</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="J17" s="5"/>
+        <v>545</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="K17" s="5" t="s">
         <v>549</v>
       </c>
@@ -3635,9 +3647,11 @@
         <v>582</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="J21" s="5"/>
+        <v>545</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="K21" s="5" t="s">
         <v>549</v>
       </c>
@@ -3725,9 +3739,11 @@
         <v>583</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="J23" s="5"/>
+        <v>545</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="K23" s="5" t="s">
         <v>549</v>
       </c>
@@ -3905,9 +3921,11 @@
         <v>587</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="J27" s="5"/>
+        <v>545</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="K27" s="5" t="s">
         <v>549</v>
       </c>
@@ -3950,9 +3968,11 @@
         <v>588</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="J28" s="5"/>
+        <v>545</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="K28" s="5" t="s">
         <v>549</v>
       </c>
@@ -4042,9 +4062,11 @@
         <v>592</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="J30" s="5"/>
+        <v>545</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="K30" s="5" t="s">
         <v>549</v>
       </c>
@@ -4134,9 +4156,11 @@
         <v>595</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="J32" s="5"/>
+        <v>545</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="K32" s="5" t="s">
         <v>549</v>
       </c>
@@ -4226,9 +4250,11 @@
         <v>598</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="J34" s="5"/>
+        <v>545</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="K34" s="5" t="s">
         <v>549</v>
       </c>
@@ -4271,9 +4297,11 @@
         <v>599</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="J35" s="5"/>
+        <v>545</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="K35" s="5" t="s">
         <v>549</v>
       </c>
@@ -4363,9 +4391,11 @@
         <v>602</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="J37" s="5"/>
+        <v>545</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="K37" s="5" t="s">
         <v>549</v>
       </c>
@@ -4502,9 +4532,11 @@
         <v>606</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="J40" s="5"/>
+        <v>545</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="K40" s="5" t="s">
         <v>549</v>
       </c>
@@ -4547,9 +4579,11 @@
         <v>607</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="J41" s="5"/>
+        <v>545</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="K41" s="5" t="s">
         <v>549</v>
       </c>
@@ -4592,9 +4626,11 @@
         <v>608</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="J42" s="5"/>
+        <v>545</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="K42" s="5" t="s">
         <v>549</v>
       </c>
@@ -4684,9 +4720,11 @@
         <v>608</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="J44" s="5"/>
+        <v>545</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="K44" s="5" t="s">
         <v>549</v>
       </c>
@@ -4729,9 +4767,11 @@
         <v>615</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="J45" s="5"/>
+        <v>545</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="K45" s="5" t="s">
         <v>549</v>
       </c>
@@ -4774,9 +4814,11 @@
         <v>616</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="J46" s="5"/>
+        <v>545</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="K46" s="5" t="s">
         <v>549</v>
       </c>
@@ -4819,9 +4861,11 @@
         <v>617</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="J47" s="5"/>
+        <v>545</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="K47" s="5" t="s">
         <v>549</v>
       </c>
@@ -4911,7 +4955,9 @@
       <c r="I49" s="5" t="s">
         <v>620</v>
       </c>
-      <c r="J49" s="5"/>
+      <c r="J49" s="5" t="s">
+        <v>620</v>
+      </c>
       <c r="K49" s="5" t="s">
         <v>620</v>
       </c>
@@ -4952,9 +4998,11 @@
         <v>622</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="J50" s="5"/>
+        <v>545</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="K50" s="5" t="s">
         <v>549</v>
       </c>
@@ -4997,9 +5045,11 @@
         <v>623</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="J51" s="5"/>
+        <v>545</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="K51" s="5" t="s">
         <v>549</v>
       </c>
@@ -5089,9 +5139,11 @@
         <v>626</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="J53" s="5"/>
+        <v>545</v>
+      </c>
+      <c r="J53" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="K53" s="5" t="s">
         <v>549</v>
       </c>
@@ -5226,9 +5278,11 @@
         <v>633</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="J56" s="5"/>
+        <v>545</v>
+      </c>
+      <c r="J56" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="K56" s="5" t="s">
         <v>549</v>
       </c>
@@ -5318,9 +5372,11 @@
         <v>636</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="J58" s="5"/>
+        <v>545</v>
+      </c>
+      <c r="J58" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="K58" s="5" t="s">
         <v>549</v>
       </c>
@@ -5457,9 +5513,11 @@
         <v>643</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="J61" s="5"/>
+        <v>545</v>
+      </c>
+      <c r="J61" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="K61" s="5" t="s">
         <v>549</v>
       </c>
@@ -5596,9 +5654,11 @@
         <v>651</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="J64" s="5"/>
+        <v>545</v>
+      </c>
+      <c r="J64" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="K64" s="5" t="s">
         <v>549</v>
       </c>
@@ -5735,9 +5795,11 @@
         <v>658</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="J67" s="5"/>
+        <v>545</v>
+      </c>
+      <c r="J67" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="K67" s="5" t="s">
         <v>549</v>
       </c>
@@ -5872,9 +5934,11 @@
         <v>663</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="J70" s="5"/>
+        <v>545</v>
+      </c>
+      <c r="J70" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="K70" s="5" t="s">
         <v>549</v>
       </c>
@@ -5917,9 +5981,11 @@
         <v>664</v>
       </c>
       <c r="I71" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="J71" s="5"/>
+        <v>545</v>
+      </c>
+      <c r="J71" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="K71" s="5" t="s">
         <v>549</v>
       </c>
@@ -5962,9 +6028,11 @@
         <v>665</v>
       </c>
       <c r="I72" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="J72" s="5"/>
+        <v>545</v>
+      </c>
+      <c r="J72" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="K72" s="5" t="s">
         <v>549</v>
       </c>
@@ -6007,9 +6075,11 @@
         <v>666</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="J73" s="5"/>
+        <v>545</v>
+      </c>
+      <c r="J73" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="K73" s="5" t="s">
         <v>549</v>
       </c>
@@ -6144,9 +6214,11 @@
         <v>669</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="J76" s="5"/>
+        <v>545</v>
+      </c>
+      <c r="J76" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="K76" s="5" t="s">
         <v>549</v>
       </c>
@@ -6283,9 +6355,11 @@
         <v>674</v>
       </c>
       <c r="I79" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="J79" s="5"/>
+        <v>545</v>
+      </c>
+      <c r="J79" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="K79" s="5" t="s">
         <v>549</v>
       </c>
@@ -6328,9 +6402,11 @@
         <v>675</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="J80" s="5"/>
+        <v>545</v>
+      </c>
+      <c r="J80" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="K80" s="5" t="s">
         <v>549</v>
       </c>
@@ -6375,7 +6451,9 @@
       <c r="I81" s="5" t="s">
         <v>620</v>
       </c>
-      <c r="J81" s="5"/>
+      <c r="J81" s="5" t="s">
+        <v>620</v>
+      </c>
       <c r="K81" s="5" t="s">
         <v>620</v>
       </c>
@@ -6510,7 +6588,9 @@
       <c r="I84" s="5" t="s">
         <v>620</v>
       </c>
-      <c r="J84" s="5"/>
+      <c r="J84" s="5" t="s">
+        <v>620</v>
+      </c>
       <c r="K84" s="5" t="s">
         <v>620</v>
       </c>
@@ -6596,9 +6676,11 @@
         <v>685</v>
       </c>
       <c r="I86" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="J86" s="5"/>
+        <v>545</v>
+      </c>
+      <c r="J86" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="K86" s="5" t="s">
         <v>549</v>
       </c>
@@ -6641,9 +6723,11 @@
         <v>687</v>
       </c>
       <c r="I87" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="J87" s="5"/>
+        <v>545</v>
+      </c>
+      <c r="J87" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="K87" s="5" t="s">
         <v>549</v>
       </c>
@@ -6872,9 +6956,11 @@
         <v>700</v>
       </c>
       <c r="I92" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="J92" s="5"/>
+        <v>545</v>
+      </c>
+      <c r="J92" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="K92" s="5" t="s">
         <v>549</v>
       </c>
@@ -6919,7 +7005,9 @@
       <c r="I93" s="5" t="s">
         <v>620</v>
       </c>
-      <c r="J93" s="5"/>
+      <c r="J93" s="5" t="s">
+        <v>620</v>
+      </c>
       <c r="K93" s="5" t="s">
         <v>620</v>
       </c>
@@ -6960,9 +7048,11 @@
         <v>704</v>
       </c>
       <c r="I94" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="J94" s="5"/>
+        <v>545</v>
+      </c>
+      <c r="J94" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="K94" s="5" t="s">
         <v>549</v>
       </c>
@@ -7095,9 +7185,11 @@
         <v>707</v>
       </c>
       <c r="I97" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="J97" s="5"/>
+        <v>545</v>
+      </c>
+      <c r="J97" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="K97" s="5" t="s">
         <v>549</v>
       </c>
@@ -7140,9 +7232,11 @@
         <v>708</v>
       </c>
       <c r="I98" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="J98" s="5"/>
+        <v>545</v>
+      </c>
+      <c r="J98" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="K98" s="5" t="s">
         <v>549</v>
       </c>
@@ -7326,9 +7420,11 @@
         <v>715</v>
       </c>
       <c r="I102" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="J102" s="5"/>
+        <v>545</v>
+      </c>
+      <c r="J102" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="K102" s="5" t="s">
         <v>549</v>
       </c>
@@ -7371,9 +7467,11 @@
         <v>716</v>
       </c>
       <c r="I103" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="J103" s="5"/>
+        <v>545</v>
+      </c>
+      <c r="J103" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="K103" s="5" t="s">
         <v>549</v>
       </c>
@@ -7416,9 +7514,11 @@
         <v>717</v>
       </c>
       <c r="I104" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="J104" s="5"/>
+        <v>545</v>
+      </c>
+      <c r="J104" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="K104" s="5" t="s">
         <v>549</v>
       </c>
@@ -7508,9 +7608,11 @@
         <v>719</v>
       </c>
       <c r="I106" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="J106" s="5"/>
+        <v>545</v>
+      </c>
+      <c r="J106" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="K106" s="5" t="s">
         <v>549</v>
       </c>
@@ -7553,9 +7655,11 @@
         <v>675</v>
       </c>
       <c r="I107" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="J107" s="5"/>
+        <v>545</v>
+      </c>
+      <c r="J107" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="K107" s="5" t="s">
         <v>549</v>
       </c>
@@ -7598,9 +7702,11 @@
         <v>720</v>
       </c>
       <c r="I108" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="J108" s="5"/>
+        <v>545</v>
+      </c>
+      <c r="J108" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="K108" s="5" t="s">
         <v>549</v>
       </c>
@@ -7643,9 +7749,11 @@
         <v>595</v>
       </c>
       <c r="I109" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="J109" s="5"/>
+        <v>545</v>
+      </c>
+      <c r="J109" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="K109" s="5" t="s">
         <v>549</v>
       </c>
@@ -7688,9 +7796,11 @@
         <v>721</v>
       </c>
       <c r="I110" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="J110" s="5"/>
+        <v>545</v>
+      </c>
+      <c r="J110" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="K110" s="5" t="s">
         <v>549</v>
       </c>
@@ -7733,9 +7843,11 @@
         <v>722</v>
       </c>
       <c r="I111" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="J111" s="5"/>
+        <v>545</v>
+      </c>
+      <c r="J111" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="K111" s="5" t="s">
         <v>549</v>
       </c>
@@ -7870,9 +7982,11 @@
         <v>725</v>
       </c>
       <c r="I114" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="J114" s="5"/>
+        <v>545</v>
+      </c>
+      <c r="J114" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="K114" s="5" t="s">
         <v>549</v>
       </c>
@@ -7915,9 +8029,11 @@
         <v>726</v>
       </c>
       <c r="I115" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="J115" s="5"/>
+        <v>545</v>
+      </c>
+      <c r="J115" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="K115" s="5" t="s">
         <v>549</v>
       </c>
@@ -7960,9 +8076,11 @@
         <v>727</v>
       </c>
       <c r="I116" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="J116" s="5"/>
+        <v>545</v>
+      </c>
+      <c r="J116" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="K116" s="5" t="s">
         <v>549</v>
       </c>
@@ -8142,9 +8260,11 @@
         <v>725</v>
       </c>
       <c r="I120" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="J120" s="5"/>
+        <v>545</v>
+      </c>
+      <c r="J120" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="K120" s="5" t="s">
         <v>549</v>
       </c>
@@ -8189,7 +8309,9 @@
       <c r="I121" s="5" t="s">
         <v>620</v>
       </c>
-      <c r="J121" s="5"/>
+      <c r="J121" s="5" t="s">
+        <v>620</v>
+      </c>
       <c r="K121" s="5" t="s">
         <v>620</v>
       </c>
@@ -8230,9 +8352,11 @@
         <v>736</v>
       </c>
       <c r="I122" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="J122" s="5"/>
+        <v>545</v>
+      </c>
+      <c r="J122" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="K122" s="5" t="s">
         <v>549</v>
       </c>
@@ -8369,9 +8493,11 @@
         <v>742</v>
       </c>
       <c r="I125" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="J125" s="5"/>
+        <v>545</v>
+      </c>
+      <c r="J125" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="K125" s="5" t="s">
         <v>549</v>
       </c>
@@ -8416,7 +8542,9 @@
       <c r="I126" s="5" t="s">
         <v>620</v>
       </c>
-      <c r="J126" s="5"/>
+      <c r="J126" s="5" t="s">
+        <v>620</v>
+      </c>
       <c r="K126" s="5" t="s">
         <v>620</v>
       </c>
@@ -8459,7 +8587,9 @@
       <c r="I127" s="5" t="s">
         <v>620</v>
       </c>
-      <c r="J127" s="5"/>
+      <c r="J127" s="5" t="s">
+        <v>620</v>
+      </c>
       <c r="K127" s="5" t="s">
         <v>620</v>
       </c>
